--- a/DL_input_4200.xlsx
+++ b/DL_input_4200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F683A751-C224-4CD6-BD18-74DC412270DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEE671-02EA-46E4-8BAA-EC2259254649}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>ID#</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>X34</t>
+  </si>
+  <si>
+    <t>NDL</t>
   </si>
 </sst>
 </file>
@@ -660,8 +663,8 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2258,7 @@
         <v>14.7525</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O31" s="5">
         <v>57</v>
